--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>requestType</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>Reuse file widget from Pseudofish</t>
+  </si>
+  <si>
+    <t>Add links in Help menu to project website and online documentation</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Add "rules file fingerprint" to output, so show that which version of a rules file was used to generate the output</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>Address items in todo-docs.md</t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1223,78 @@
       </c>
       <c r="M4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43778</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43778</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43778</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1325,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,6 +1384,9 @@
       </c>
       <c r="B4" t="s">
         <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
